--- a/automate_currencies.xlsx
+++ b/automate_currencies.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,24 +453,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Euro</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0,014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>310.79</t>
+          <t>Gold</t>
         </is>
       </c>
     </row>
